--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2305528.614741687</v>
+        <v>2274335.733260627</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6165603.330802534</v>
+        <v>6165603.330802536</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>235.4921832098738</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -709,25 +709,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>384.1952617813579</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -803,10 +803,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.01825027641604</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>167.1394242513582</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>277.0140198902759</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>279.1198996992587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -946,22 +946,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>159.2203581834216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>143.4986953536883</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -1056,7 +1056,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>125.2040305762914</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>76.01970621061126</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>402.0384979716479</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>183.0467900141391</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1226,13 +1226,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>29.81172827836502</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>41.33210888672563</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1280,7 +1280,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>182.963649477713</v>
+        <v>65.74736437632238</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>237.5175157875853</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>338.9523122423662</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.49806561112342</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S12" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T12" t="n">
         <v>185.9745311655613</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>88.25110590539271</v>
+        <v>200.5612105117683</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>90.43255864592675</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>203.1813395899729</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I15" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>46.49806561112342</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S15" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T15" t="n">
         <v>185.9745311655613</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>88.25110590539272</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>125.428172670879</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>201.6300227658369</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
         <v>411.5609956070679</v>
       </c>
       <c r="H17" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>32.75302175660103</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I18" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.49806561112342</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S18" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T18" t="n">
         <v>185.9745311655613</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>76.18436034703429</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>164.1663657719744</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>130.0421940007536</v>
       </c>
       <c r="E20" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>246.8094667733407</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I21" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.49806561112342</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S21" t="n">
-        <v>147.4755605575066</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T21" t="n">
         <v>185.9745311655613</v>
@@ -2247,22 +2247,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>8.053024110833981</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.2556384040709</v>
+        <v>15.24325125830054</v>
       </c>
       <c r="I22" t="n">
         <v>137.6086505120454</v>
       </c>
       <c r="J22" t="n">
-        <v>47.34362796447564</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>229.4348553754048</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
@@ -2335,10 +2335,10 @@
         <v>410.7953871538391</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I23" t="n">
-        <v>7.322715868437167</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>17.64651753167264</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -2386,7 +2386,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>10.34740899347364</v>
       </c>
       <c r="W25" t="n">
-        <v>82.34728551612864</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,22 +2560,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>408.7621353035189</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>159.2066729054946</v>
       </c>
       <c r="T26" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>0.972847904702744</v>
       </c>
       <c r="Y26" t="n">
         <v>389.6064368699203</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>110.9597753508005</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>273.6772291387667</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>228.939939463578</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>12.06083463680041</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H29" t="n">
         <v>317.7406176577446</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.0919149789806</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>189.9540437200055</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -2891,7 +2891,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I30" t="n">
-        <v>46.55860261786525</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>21.0646611356825</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S30" t="n">
         <v>139.8667397074436</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>157.3067794494093</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
@@ -3018,7 +3018,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.98016348824731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.67584585562183</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
         <v>390.8378626949542</v>
@@ -3049,7 +3049,7 @@
         <v>317.7406176577446</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>17.64651753167264</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>51.1176225203551</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U32" t="n">
         <v>252.2446781610247</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3128,7 +3128,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I33" t="n">
-        <v>46.55860261786525</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>21.0646611356825</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S33" t="n">
         <v>139.8667397074436</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.749272587005659</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>183.469087584542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
@@ -3283,10 +3283,10 @@
         <v>410.7953871538391</v>
       </c>
       <c r="H35" t="n">
-        <v>317.7406176577446</v>
+        <v>218.904455605268</v>
       </c>
       <c r="I35" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>17.64651753167264</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>138.40237529333</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
@@ -3365,7 +3365,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I36" t="n">
-        <v>46.55860261786525</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.0646611356825</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S36" t="n">
         <v>139.8667397074436</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>284.290259532294</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>128.1187675158256</v>
       </c>
       <c r="Y37" t="n">
-        <v>196.8782996388195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>281.8155563584039</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>9.644573823518986</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I39" t="n">
-        <v>46.55860261786525</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>21.0646611356825</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S39" t="n">
         <v>139.8667397074436</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>183.4690875845417</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>151.2062443112935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
         <v>410.7953871538391</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V41" t="n">
-        <v>259.8184092631508</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>175.4767993283964</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -3839,7 +3839,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I42" t="n">
-        <v>46.55860261786525</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21.0646611356825</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S42" t="n">
         <v>139.8667397074436</v>
@@ -3903,22 +3903,22 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>122.7682335370983</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>127.2809062519456</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>67.17266430826201</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
@@ -3994,10 +3994,10 @@
         <v>410.7953871538391</v>
       </c>
       <c r="H44" t="n">
-        <v>8.628587373762938</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>217.0919149789806</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2446781610247</v>
+        <v>122.5335115880561</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -4045,7 +4045,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H46" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6320876073524</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>71.9970240631658</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2010.574518555815</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="C2" t="n">
-        <v>2010.574518555815</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="D2" t="n">
-        <v>1772.703626424629</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="E2" t="n">
-        <v>1377.917906530736</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="F2" t="n">
-        <v>963.766715840906</v>
+        <v>226.9050373978112</v>
       </c>
       <c r="G2" t="n">
-        <v>547.662729295094</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H2" t="n">
         <v>214.8414548924032</v>
@@ -4357,25 +4357,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T2" t="n">
-        <v>2010.574518555815</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U2" t="n">
-        <v>2010.574518555815</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V2" t="n">
-        <v>2010.574518555815</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W2" t="n">
-        <v>2010.574518555815</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="X2" t="n">
-        <v>2010.574518555815</v>
+        <v>625.0918460486084</v>
       </c>
       <c r="Y2" t="n">
-        <v>2010.574518555815</v>
+        <v>237.0158240472368</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>786.6432185531175</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C3" t="n">
-        <v>624.9395457940723</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D3" t="n">
-        <v>486.1009087842844</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E3" t="n">
-        <v>339.0728988411556</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F3" t="n">
         <v>339.0728988411556</v>
@@ -4412,16 +4412,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K3" t="n">
-        <v>252.8463055811703</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L3" t="n">
-        <v>252.8463055811703</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="M3" t="n">
-        <v>737.8796590913968</v>
+        <v>756.5481621716143</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1267.813808294736</v>
       </c>
       <c r="O3" t="n">
         <v>1641.34525599867</v>
@@ -4433,28 +4433,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T3" t="n">
-        <v>1699.943945333632</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U3" t="n">
-        <v>1481.449152931943</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V3" t="n">
-        <v>1253.053530380276</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W3" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X3" t="n">
-        <v>1011.737661613587</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y3" t="n">
-        <v>946.0626613343784</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="4">
@@ -4509,22 +4509,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R4" t="n">
-        <v>424.5617199615099</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S4" t="n">
-        <v>210.8519573651974</v>
+        <v>321.8363974045083</v>
       </c>
       <c r="T4" t="n">
-        <v>42.02425610119923</v>
+        <v>321.8363974045083</v>
       </c>
       <c r="U4" t="n">
-        <v>42.02425610119923</v>
+        <v>321.8363974045083</v>
       </c>
       <c r="V4" t="n">
-        <v>42.02425610119923</v>
+        <v>321.8363974045083</v>
       </c>
       <c r="W4" t="n">
         <v>42.02425610119923</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1045.096632128045</v>
+        <v>1728.635225930301</v>
       </c>
       <c r="C5" t="n">
-        <v>1045.096632128045</v>
+        <v>1346.701467263108</v>
       </c>
       <c r="D5" t="n">
-        <v>1045.096632128045</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="E5" t="n">
-        <v>1045.096632128045</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="F5" t="n">
-        <v>630.9454414382152</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G5" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H5" t="n">
         <v>214.8414548924032</v>
@@ -4567,19 +4567,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L5" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N5" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O5" t="n">
         <v>1778.623654917371</v>
@@ -4594,25 +4594,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T5" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U5" t="n">
-        <v>1568.460206900163</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V5" t="n">
-        <v>1568.460206900163</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W5" t="n">
-        <v>1205.925276757764</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X5" t="n">
-        <v>1045.096632128045</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="Y5" t="n">
-        <v>1045.096632128045</v>
+        <v>2010.574518555815</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>786.6432185531175</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C6" t="n">
-        <v>624.9395457940723</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D6" t="n">
-        <v>486.1009087842844</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E6" t="n">
-        <v>339.0728988411556</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F6" t="n">
         <v>339.0728988411556</v>
@@ -4646,19 +4646,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>49.73385863501696</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>279.2244111952056</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="L6" t="n">
-        <v>645.0462563653213</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M6" t="n">
-        <v>1130.079609875548</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N6" t="n">
-        <v>1641.34525599867</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O6" t="n">
         <v>1641.34525599867</v>
@@ -4670,28 +4670,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T6" t="n">
-        <v>1699.943945333632</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.449152931943</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V6" t="n">
-        <v>1481.449152931943</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W6" t="n">
-        <v>1336.500975807005</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X6" t="n">
-        <v>1138.583987684799</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y6" t="n">
-        <v>946.0626613343784</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.4929738550289</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
         <v>42.02425610119923</v>
@@ -4746,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R7" t="n">
-        <v>574.0835013471317</v>
+        <v>458.7585779699002</v>
       </c>
       <c r="S7" t="n">
-        <v>574.0835013471317</v>
+        <v>458.7585779699002</v>
       </c>
       <c r="T7" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="U7" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="V7" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="W7" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="X7" t="n">
-        <v>574.0835013471317</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.0483425394087</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.032663131652</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="C8" t="n">
-        <v>1235.09890446446</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="D8" t="n">
-        <v>862.2749396916834</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E8" t="n">
-        <v>862.2749396916834</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>448.1237490018537</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
         <v>42.02425610119923</v>
@@ -4804,10 +4804,10 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740046</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L8" t="n">
         <v>702.0485455037335</v>
@@ -4834,22 +4834,22 @@
         <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>1825.678771066785</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.574518555815</v>
+        <v>1570.793434780779</v>
       </c>
       <c r="V8" t="n">
-        <v>2010.574518555815</v>
+        <v>1233.814160676721</v>
       </c>
       <c r="W8" t="n">
-        <v>2010.574518555815</v>
+        <v>1233.814160676721</v>
       </c>
       <c r="X8" t="n">
-        <v>2010.574518555815</v>
+        <v>851.784020198214</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.032663131652</v>
+        <v>458.242164774052</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>654.4012307101202</v>
+        <v>863.1487640860278</v>
       </c>
       <c r="C9" t="n">
-        <v>492.6975579510749</v>
+        <v>701.4450913269825</v>
       </c>
       <c r="D9" t="n">
-        <v>353.858920941287</v>
+        <v>562.6064543171946</v>
       </c>
       <c r="E9" t="n">
-        <v>206.8309109981582</v>
+        <v>415.5784443740658</v>
       </c>
       <c r="F9" t="n">
-        <v>72.13711294803258</v>
+        <v>280.8846463239402</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119923</v>
+        <v>152.1561463472247</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4886,19 +4886,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>252.8463055811703</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P9" t="n">
         <v>1943.441175274367</v>
@@ -4907,28 +4907,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1882.718012658271</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1654.322390106605</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1413.006521339915</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1215.08953321771</v>
       </c>
       <c r="Y9" t="n">
-        <v>813.8206734913811</v>
+        <v>1022.568206867289</v>
       </c>
     </row>
     <row r="10">
@@ -4995,19 +4995,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>286.8932618362315</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>286.8932618362315</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>286.8932618362315</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>102.0814946870265</v>
+        <v>507.6720221791293</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.0814946870265</v>
+        <v>285.6368633714063</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1806.276261170625</v>
+        <v>1190.227921040281</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.276261170625</v>
+        <v>1190.227921040281</v>
       </c>
       <c r="D11" t="n">
-        <v>1433.452296397849</v>
+        <v>1190.227921040281</v>
       </c>
       <c r="E11" t="n">
-        <v>1038.666576503955</v>
+        <v>795.442201146388</v>
       </c>
       <c r="F11" t="n">
-        <v>624.5153858141257</v>
+        <v>795.442201146388</v>
       </c>
       <c r="G11" t="n">
-        <v>208.797208433249</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H11" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I11" t="n">
         <v>50.85391747321462</v>
@@ -5047,19 +5047,19 @@
         <v>443.1860302481634</v>
       </c>
       <c r="L11" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N11" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O11" t="n">
         <v>2124.896977382889</v>
       </c>
       <c r="P11" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q11" t="n">
         <v>2542.695873660731</v>
@@ -5074,19 +5074,19 @@
         <v>2542.695873660731</v>
       </c>
       <c r="U11" t="n">
-        <v>2542.695873660731</v>
+        <v>2302.779191047008</v>
       </c>
       <c r="V11" t="n">
-        <v>2542.695873660731</v>
+        <v>1965.79991694295</v>
       </c>
       <c r="W11" t="n">
-        <v>2542.695873660731</v>
+        <v>1965.79991694295</v>
       </c>
       <c r="X11" t="n">
-        <v>2542.695873660731</v>
+        <v>1583.769776464443</v>
       </c>
       <c r="Y11" t="n">
-        <v>2200.319800688644</v>
+        <v>1190.227921040281</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J12" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K12" t="n">
-        <v>313.0144261414831</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L12" t="n">
-        <v>722.7650590219089</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M12" t="n">
-        <v>1259.061235803009</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N12" t="n">
-        <v>1822.946479591694</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.966047520444</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P12" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.69587366073</v>
@@ -5208,31 +5208,31 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5706761520457</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N13" t="n">
-        <v>518.9490144159678</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O13" t="n">
-        <v>641.3872247924079</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P13" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q13" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R13" t="n">
-        <v>583.1297470766742</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S13" t="n">
-        <v>372.4359606620632</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="T13" t="n">
-        <v>139.996448690783</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="U13" t="n">
-        <v>50.85391747321462</v>
+        <v>311.589221914792</v>
       </c>
       <c r="V13" t="n">
         <v>50.85391747321462</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2148.652334142711</v>
+        <v>1354.003063045383</v>
       </c>
       <c r="C14" t="n">
-        <v>1766.718575475519</v>
+        <v>972.0693043781905</v>
       </c>
       <c r="D14" t="n">
-        <v>1393.894610702742</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="E14" t="n">
-        <v>999.1088908088491</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F14" t="n">
-        <v>584.9577001190194</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G14" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H14" t="n">
         <v>50.85391747321462</v>
@@ -5281,16 +5281,16 @@
         <v>154.9459054532635</v>
       </c>
       <c r="K14" t="n">
-        <v>443.1860302481632</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L14" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N14" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O14" t="n">
         <v>2124.896977382889</v>
@@ -5305,25 +5305,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2542.695873660731</v>
+        <v>2364.258524637049</v>
       </c>
       <c r="T14" t="n">
-        <v>2542.695873660731</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="U14" t="n">
-        <v>2542.695873660731</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="V14" t="n">
-        <v>2542.695873660731</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="W14" t="n">
-        <v>2542.695873660731</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="X14" t="n">
-        <v>2542.695873660731</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="Y14" t="n">
-        <v>2542.695873660731</v>
+        <v>1748.046602563402</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C15" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D15" t="n">
         <v>620.3170860732707</v>
@@ -5345,7 +5345,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F15" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G15" t="n">
         <v>210.0732042050868</v>
@@ -5360,7 +5360,7 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K15" t="n">
-        <v>392.3832078845234</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L15" t="n">
         <v>802.1338407649491</v>
@@ -5369,16 +5369,16 @@
         <v>1338.430017546049</v>
       </c>
       <c r="N15" t="n">
-        <v>1902.315261334734</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O15" t="n">
-        <v>2342.651863910041</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P15" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q15" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R15" t="n">
         <v>2495.728130619192</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.85391747321462</v>
+        <v>203.9258106454519</v>
       </c>
       <c r="C16" t="n">
-        <v>50.85391747321462</v>
+        <v>203.9258106454519</v>
       </c>
       <c r="D16" t="n">
         <v>50.85391747321462</v>
@@ -5445,43 +5445,43 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5706761520457</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N16" t="n">
-        <v>518.9490144159678</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O16" t="n">
-        <v>641.3872247924079</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P16" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q16" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R16" t="n">
-        <v>583.1297470766742</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S16" t="n">
-        <v>372.4359606620632</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="T16" t="n">
-        <v>139.996448690783</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="U16" t="n">
-        <v>50.85391747321462</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="V16" t="n">
-        <v>50.85391747321462</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="W16" t="n">
-        <v>50.85391747321462</v>
+        <v>387.4811793298317</v>
       </c>
       <c r="X16" t="n">
-        <v>50.85391747321462</v>
+        <v>387.4811793298317</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.85391747321462</v>
+        <v>387.4811793298317</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2148.652334142712</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="C17" t="n">
-        <v>1766.718575475519</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="D17" t="n">
-        <v>1393.894610702743</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E17" t="n">
-        <v>999.1088908088495</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F17" t="n">
-        <v>795.442201146388</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G17" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H17" t="n">
         <v>50.85391747321462</v>
@@ -5515,7 +5515,7 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J17" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K17" t="n">
         <v>443.1860302481634</v>
@@ -5533,7 +5533,7 @@
         <v>2124.896977382889</v>
       </c>
       <c r="P17" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q17" t="n">
         <v>2542.695873660731</v>
@@ -5545,22 +5545,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="T17" t="n">
-        <v>2542.695873660731</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U17" t="n">
-        <v>2542.695873660731</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="V17" t="n">
-        <v>2542.695873660731</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="W17" t="n">
-        <v>2542.695873660731</v>
+        <v>1702.636405316036</v>
       </c>
       <c r="X17" t="n">
-        <v>2542.695873660731</v>
+        <v>1702.636405316036</v>
       </c>
       <c r="Y17" t="n">
-        <v>2542.695873660731</v>
+        <v>1669.552544955833</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C18" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D18" t="n">
         <v>620.3170860732707</v>
@@ -5582,10 +5582,10 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F18" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G18" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050869</v>
       </c>
       <c r="H18" t="n">
         <v>112.1289883137699</v>
@@ -5597,25 +5597,25 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K18" t="n">
-        <v>392.3832078845234</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L18" t="n">
         <v>802.1338407649491</v>
       </c>
       <c r="M18" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N18" t="n">
-        <v>1902.315261334734</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O18" t="n">
         <v>2018.368674122672</v>
       </c>
       <c r="P18" t="n">
-        <v>2359.098500262958</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q18" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R18" t="n">
         <v>2495.728130619192</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.85391747321462</v>
+        <v>361.759788831382</v>
       </c>
       <c r="C19" t="n">
-        <v>50.85391747321462</v>
+        <v>361.759788831382</v>
       </c>
       <c r="D19" t="n">
-        <v>50.85391747321462</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="E19" t="n">
-        <v>50.85391747321462</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="F19" t="n">
-        <v>50.85391747321462</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="G19" t="n">
-        <v>50.85391747321462</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="H19" t="n">
         <v>50.85391747321462</v>
@@ -5682,43 +5682,43 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M19" t="n">
-        <v>374.5706761520457</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N19" t="n">
-        <v>518.9490144159678</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O19" t="n">
-        <v>641.3872247924079</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P19" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q19" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R19" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S19" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T19" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U19" t="n">
-        <v>724.8700896544217</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="V19" t="n">
-        <v>559.0454777635384</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="W19" t="n">
-        <v>272.8890762809376</v>
+        <v>438.7136881718207</v>
       </c>
       <c r="X19" t="n">
-        <v>272.8890762809376</v>
+        <v>438.7136881718207</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.85391747321462</v>
+        <v>438.7136881718207</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>861.3578147479845</v>
+        <v>1373.080338240043</v>
       </c>
       <c r="C20" t="n">
-        <v>861.3578147479845</v>
+        <v>991.1465795728502</v>
       </c>
       <c r="D20" t="n">
-        <v>861.3578147479845</v>
+        <v>859.7908280569375</v>
       </c>
       <c r="E20" t="n">
-        <v>466.5720948540913</v>
+        <v>465.0051081630443</v>
       </c>
       <c r="F20" t="n">
-        <v>466.5720948540913</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G20" t="n">
         <v>50.85391747321462</v>
@@ -5752,25 +5752,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K20" t="n">
-        <v>443.1860302481635</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L20" t="n">
-        <v>850.7433998907122</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N20" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O20" t="n">
         <v>2124.896977382889</v>
       </c>
       <c r="P20" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q20" t="n">
         <v>2542.695873660731</v>
@@ -5779,25 +5779,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.258524637049</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T20" t="n">
-        <v>2141.588457987565</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U20" t="n">
-        <v>1886.733986434753</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V20" t="n">
-        <v>1886.733986434753</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W20" t="n">
-        <v>1637.43149474451</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="X20" t="n">
-        <v>1255.401354266004</v>
+        <v>2160.665733182224</v>
       </c>
       <c r="Y20" t="n">
-        <v>1255.401354266004</v>
+        <v>1767.123877758062</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J21" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K21" t="n">
-        <v>68.1000180971534</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L21" t="n">
-        <v>477.8506509775792</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M21" t="n">
         <v>1014.14682775868</v>
       </c>
       <c r="N21" t="n">
-        <v>1578.032071547364</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O21" t="n">
         <v>2018.368674122672</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2542.695873660731</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="C22" t="n">
-        <v>2542.695873660731</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="D22" t="n">
-        <v>2542.695873660731</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="E22" t="n">
-        <v>2534.56150587201</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="F22" t="n">
-        <v>2382.080850897787</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="G22" t="n">
-        <v>2213.334162975072</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="H22" t="n">
-        <v>2055.500184789142</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="I22" t="n">
-        <v>1916.501547908288</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J22" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K22" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L22" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M22" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N22" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O22" t="n">
-        <v>2459.213008798718</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P22" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q22" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R22" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S22" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T22" t="n">
-        <v>2542.695873660731</v>
+        <v>492.4305776831415</v>
       </c>
       <c r="U22" t="n">
-        <v>2542.695873660731</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="V22" t="n">
-        <v>2542.695873660731</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="W22" t="n">
-        <v>2542.695873660731</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="X22" t="n">
-        <v>2542.695873660731</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="Y22" t="n">
-        <v>2542.695873660731</v>
+        <v>205.2497778473015</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1299.831114135908</v>
+        <v>2346.089922668325</v>
       </c>
       <c r="C23" t="n">
-        <v>1299.831114135908</v>
+        <v>2114.337543501249</v>
       </c>
       <c r="D23" t="n">
-        <v>1299.831114135908</v>
+        <v>1741.513578728473</v>
       </c>
       <c r="E23" t="n">
-        <v>905.0453942420149</v>
+        <v>1346.72785883458</v>
       </c>
       <c r="F23" t="n">
-        <v>490.8942035521853</v>
+        <v>932.5766681447501</v>
       </c>
       <c r="G23" t="n">
-        <v>75.94936804325687</v>
+        <v>517.6318326358218</v>
       </c>
       <c r="H23" t="n">
-        <v>75.94936804325687</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="I23" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J23" t="n">
-        <v>236.974933180568</v>
+        <v>236.9749331805679</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950433</v>
       </c>
       <c r="L23" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M23" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N23" t="n">
         <v>2322.568598257194</v>
@@ -6013,28 +6013,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R23" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S23" t="n">
-        <v>3248.994681093121</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T23" t="n">
-        <v>3029.70991848809</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U23" t="n">
-        <v>2774.917314285035</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="V23" t="n">
-        <v>2437.938040180976</v>
+        <v>3090.654993289231</v>
       </c>
       <c r="W23" t="n">
-        <v>2075.403110038577</v>
+        <v>2728.120063146832</v>
       </c>
       <c r="X23" t="n">
-        <v>1693.37296956007</v>
+        <v>2346.089922668325</v>
       </c>
       <c r="Y23" t="n">
-        <v>1299.831114135908</v>
+        <v>2346.089922668325</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="K24" t="n">
-        <v>68.55268534786579</v>
+        <v>396.1990541494053</v>
       </c>
       <c r="L24" t="n">
-        <v>566.35713863456</v>
+        <v>894.0035074360995</v>
       </c>
       <c r="M24" t="n">
-        <v>646.9485681965875</v>
+        <v>933.6919223546713</v>
       </c>
       <c r="N24" t="n">
-        <v>1316.308077135688</v>
+        <v>1603.051431293771</v>
       </c>
       <c r="O24" t="n">
-        <v>1853.133026253341</v>
+        <v>2139.876380411425</v>
       </c>
       <c r="P24" t="n">
-        <v>2271.303257056754</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="Q24" t="n">
         <v>2506.667490147568</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>543.249562297104</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="C25" t="n">
-        <v>373.6335927587843</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="D25" t="n">
-        <v>220.561699586547</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="E25" t="n">
         <v>68.55268534786579</v>
@@ -6174,25 +6174,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S25" t="n">
-        <v>1032.019166068125</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="T25" t="n">
-        <v>1032.019166068125</v>
+        <v>596.4134792113268</v>
       </c>
       <c r="U25" t="n">
-        <v>1032.019166068125</v>
+        <v>596.4134792113268</v>
       </c>
       <c r="V25" t="n">
-        <v>1032.019166068125</v>
+        <v>585.9615509350908</v>
       </c>
       <c r="W25" t="n">
-        <v>948.8400897892068</v>
+        <v>299.80514945249</v>
       </c>
       <c r="X25" t="n">
-        <v>948.8400897892068</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="Y25" t="n">
-        <v>726.8049309814838</v>
+        <v>68.55268534786579</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1650.352645238795</v>
+        <v>2123.447337395666</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.418886571602</v>
+        <v>1741.513578728473</v>
       </c>
       <c r="D26" t="n">
-        <v>895.5949217988257</v>
+        <v>1741.513578728473</v>
       </c>
       <c r="E26" t="n">
-        <v>895.5949217988257</v>
+        <v>1346.72785883458</v>
       </c>
       <c r="F26" t="n">
-        <v>481.443731108996</v>
+        <v>932.5766681447501</v>
       </c>
       <c r="G26" t="n">
-        <v>68.55268534786579</v>
+        <v>517.6318326358218</v>
       </c>
       <c r="H26" t="n">
-        <v>68.55268534786579</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="I26" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J26" t="n">
-        <v>236.9749331805676</v>
+        <v>236.974933180568</v>
       </c>
       <c r="K26" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950431</v>
       </c>
       <c r="L26" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M26" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N26" t="n">
         <v>2322.568598257194</v>
       </c>
       <c r="O26" t="n">
-        <v>2818.990544201361</v>
+        <v>2818.99054420136</v>
       </c>
       <c r="P26" t="n">
         <v>3210.517730076022</v>
@@ -6256,22 +6256,22 @@
         <v>3248.994681093121</v>
       </c>
       <c r="T26" t="n">
-        <v>3029.70991848809</v>
+        <v>3248.994681093121</v>
       </c>
       <c r="U26" t="n">
-        <v>2774.917314285035</v>
+        <v>3248.994681093121</v>
       </c>
       <c r="V26" t="n">
-        <v>2437.938040180976</v>
+        <v>2912.015406989062</v>
       </c>
       <c r="W26" t="n">
-        <v>2437.938040180976</v>
+        <v>2912.015406989062</v>
       </c>
       <c r="X26" t="n">
-        <v>2437.938040180976</v>
+        <v>2911.032732337847</v>
       </c>
       <c r="Y26" t="n">
-        <v>2044.396184756814</v>
+        <v>2517.490876913685</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="K27" t="n">
-        <v>68.55268534786579</v>
+        <v>396.1990541494053</v>
       </c>
       <c r="L27" t="n">
-        <v>566.35713863456</v>
+        <v>894.0035074360995</v>
       </c>
       <c r="M27" t="n">
-        <v>1205.407970599382</v>
+        <v>933.6919223546713</v>
       </c>
       <c r="N27" t="n">
-        <v>1316.308077135688</v>
+        <v>1603.051431293771</v>
       </c>
       <c r="O27" t="n">
-        <v>1853.133026253341</v>
+        <v>2139.876380411425</v>
       </c>
       <c r="P27" t="n">
-        <v>2271.303257056754</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="Q27" t="n">
         <v>2506.667490147568</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>238.1686548861855</v>
+        <v>335.3830368724028</v>
       </c>
       <c r="C28" t="n">
-        <v>68.55268534786579</v>
+        <v>335.3830368724028</v>
       </c>
       <c r="D28" t="n">
-        <v>68.55268534786579</v>
+        <v>335.3830368724028</v>
       </c>
       <c r="E28" t="n">
-        <v>68.55268534786579</v>
+        <v>335.3830368724028</v>
       </c>
       <c r="F28" t="n">
-        <v>68.55268534786579</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="G28" t="n">
-        <v>68.55268534786579</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="H28" t="n">
         <v>68.55268534786579</v>
@@ -6411,25 +6411,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S28" t="n">
-        <v>1032.019166068125</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="T28" t="n">
-        <v>1032.019166068125</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="U28" t="n">
-        <v>755.5775204734107</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="V28" t="n">
-        <v>755.5775204734107</v>
+        <v>566.635500977027</v>
       </c>
       <c r="W28" t="n">
-        <v>469.4211189908098</v>
+        <v>566.635500977027</v>
       </c>
       <c r="X28" t="n">
-        <v>238.1686548861855</v>
+        <v>335.3830368724028</v>
       </c>
       <c r="Y28" t="n">
-        <v>238.1686548861855</v>
+        <v>335.3830368724028</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1178.404944004452</v>
+        <v>2368.142273726693</v>
       </c>
       <c r="C29" t="n">
-        <v>796.4711853372589</v>
+        <v>1986.2085150595</v>
       </c>
       <c r="D29" t="n">
-        <v>796.4711853372589</v>
+        <v>1613.384550286724</v>
       </c>
       <c r="E29" t="n">
-        <v>401.6854654433658</v>
+        <v>1218.59883039283</v>
       </c>
       <c r="F29" t="n">
-        <v>389.5028041940724</v>
+        <v>804.4476397030008</v>
       </c>
       <c r="G29" t="n">
         <v>389.5028041940724</v>
@@ -6463,10 +6463,10 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J29" t="n">
-        <v>236.9749331805676</v>
+        <v>236.974933180568</v>
       </c>
       <c r="K29" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950431</v>
       </c>
       <c r="L29" t="n">
         <v>1148.797379660662</v>
@@ -6490,25 +6490,25 @@
         <v>3427.63426739329</v>
       </c>
       <c r="S29" t="n">
-        <v>3266.819446276628</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T29" t="n">
-        <v>3047.534683671597</v>
+        <v>3208.349504788259</v>
       </c>
       <c r="U29" t="n">
-        <v>3047.534683671597</v>
+        <v>2953.556900585203</v>
       </c>
       <c r="V29" t="n">
-        <v>2710.555409567538</v>
+        <v>2761.684129150854</v>
       </c>
       <c r="W29" t="n">
-        <v>2348.020479425139</v>
+        <v>2761.684129150854</v>
       </c>
       <c r="X29" t="n">
-        <v>1965.990338946633</v>
+        <v>2761.684129150854</v>
       </c>
       <c r="Y29" t="n">
-        <v>1572.448483522471</v>
+        <v>2368.142273726693</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G30" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H30" t="n">
         <v>115.581576881063</v>
@@ -6545,19 +6545,19 @@
         <v>68.55268534786579</v>
       </c>
       <c r="K30" t="n">
-        <v>396.1990541494053</v>
+        <v>362.3711518160384</v>
       </c>
       <c r="L30" t="n">
-        <v>653.1235525621788</v>
+        <v>860.1756051027327</v>
       </c>
       <c r="M30" t="n">
-        <v>1292.174384527</v>
+        <v>1499.226437067554</v>
       </c>
       <c r="N30" t="n">
-        <v>1961.533893466101</v>
+        <v>1551.672310226501</v>
       </c>
       <c r="O30" t="n">
-        <v>2498.358842583754</v>
+        <v>2088.497259344154</v>
       </c>
       <c r="P30" t="n">
         <v>2506.667490147568</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>220.561699586547</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="C31" t="n">
-        <v>220.561699586547</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="D31" t="n">
-        <v>220.561699586547</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="E31" t="n">
         <v>68.55268534786579</v>
@@ -6651,22 +6651,22 @@
         <v>1032.019166068125</v>
       </c>
       <c r="T31" t="n">
-        <v>1032.019166068125</v>
+        <v>873.1234292505394</v>
       </c>
       <c r="U31" t="n">
-        <v>1032.019166068125</v>
+        <v>585.9615509350908</v>
       </c>
       <c r="V31" t="n">
-        <v>771.2838616265472</v>
+        <v>585.9615509350908</v>
       </c>
       <c r="W31" t="n">
-        <v>485.1274601439463</v>
+        <v>299.80514945249</v>
       </c>
       <c r="X31" t="n">
-        <v>253.874996039322</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.561699586547</v>
+        <v>68.55268534786579</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1995.318308953916</v>
+        <v>2114.337543501249</v>
       </c>
       <c r="C32" t="n">
-        <v>1613.384550286724</v>
+        <v>2114.337543501249</v>
       </c>
       <c r="D32" t="n">
-        <v>1613.384550286724</v>
+        <v>1741.513578728473</v>
       </c>
       <c r="E32" t="n">
-        <v>1218.59883039283</v>
+        <v>1346.72785883458</v>
       </c>
       <c r="F32" t="n">
-        <v>804.4476397030008</v>
+        <v>932.5766681447501</v>
       </c>
       <c r="G32" t="n">
-        <v>389.5028041940724</v>
+        <v>517.6318326358218</v>
       </c>
       <c r="H32" t="n">
-        <v>68.55268534786579</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="I32" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J32" t="n">
-        <v>236.974933180568</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K32" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L32" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M32" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N32" t="n">
         <v>2322.568598257194</v>
@@ -6724,28 +6724,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R32" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S32" t="n">
-        <v>3409.809502209782</v>
+        <v>3376.000305251517</v>
       </c>
       <c r="T32" t="n">
-        <v>3409.809502209782</v>
+        <v>3156.715542646486</v>
       </c>
       <c r="U32" t="n">
-        <v>3155.016898006726</v>
+        <v>2901.922938443431</v>
       </c>
       <c r="V32" t="n">
-        <v>2818.037623902668</v>
+        <v>2901.922938443431</v>
       </c>
       <c r="W32" t="n">
-        <v>2818.037623902668</v>
+        <v>2901.922938443431</v>
       </c>
       <c r="X32" t="n">
-        <v>2436.007483424161</v>
+        <v>2901.922938443431</v>
       </c>
       <c r="Y32" t="n">
-        <v>2042.465627999999</v>
+        <v>2508.381083019269</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G33" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H33" t="n">
         <v>115.581576881063</v>
@@ -6779,22 +6779,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J33" t="n">
-        <v>186.2361291527469</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K33" t="n">
-        <v>186.2361291527469</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="L33" t="n">
-        <v>653.1235525621788</v>
+        <v>243.2619693225794</v>
       </c>
       <c r="M33" t="n">
-        <v>1292.174384527</v>
+        <v>882.312801287401</v>
       </c>
       <c r="N33" t="n">
-        <v>1961.533893466101</v>
+        <v>1551.672310226501</v>
       </c>
       <c r="O33" t="n">
-        <v>2498.358842583754</v>
+        <v>2088.497259344154</v>
       </c>
       <c r="P33" t="n">
         <v>2506.667490147568</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2464.167786673031</v>
+        <v>70.31962735494221</v>
       </c>
       <c r="C34" t="n">
-        <v>2464.167786673031</v>
+        <v>70.31962735494221</v>
       </c>
       <c r="D34" t="n">
-        <v>2464.167786673031</v>
+        <v>70.31962735494221</v>
       </c>
       <c r="E34" t="n">
-        <v>2464.167786673031</v>
+        <v>70.31962735494221</v>
       </c>
       <c r="F34" t="n">
-        <v>2464.167786673031</v>
+        <v>70.31962735494221</v>
       </c>
       <c r="G34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J34" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K34" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L34" t="n">
-        <v>2733.351086222692</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M34" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N34" t="n">
-        <v>3127.634270415695</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O34" t="n">
-        <v>3298.128711166522</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P34" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q34" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R34" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S34" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T34" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U34" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="V34" t="n">
-        <v>3166.898962951712</v>
+        <v>771.2838616265472</v>
       </c>
       <c r="W34" t="n">
-        <v>2880.742561469111</v>
+        <v>485.1274601439463</v>
       </c>
       <c r="X34" t="n">
-        <v>2649.490097364487</v>
+        <v>253.874996039322</v>
       </c>
       <c r="Y34" t="n">
-        <v>2464.167786673031</v>
+        <v>253.874996039322</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2114.337543501249</v>
+        <v>1895.483801830203</v>
       </c>
       <c r="C35" t="n">
-        <v>2114.337543501249</v>
+        <v>1513.55004316301</v>
       </c>
       <c r="D35" t="n">
-        <v>1741.513578728473</v>
+        <v>1513.55004316301</v>
       </c>
       <c r="E35" t="n">
-        <v>1346.72785883458</v>
+        <v>1118.764323269117</v>
       </c>
       <c r="F35" t="n">
-        <v>932.5766681447501</v>
+        <v>704.6131325792871</v>
       </c>
       <c r="G35" t="n">
-        <v>517.6318326358218</v>
+        <v>289.6682970703587</v>
       </c>
       <c r="H35" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I35" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J35" t="n">
-        <v>236.974933180568</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K35" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L35" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M35" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N35" t="n">
         <v>2322.568598257194</v>
@@ -6961,28 +6961,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R35" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S35" t="n">
-        <v>3248.994681093121</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T35" t="n">
-        <v>3029.70991848809</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U35" t="n">
-        <v>2889.909539403918</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="V35" t="n">
-        <v>2889.909539403918</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="W35" t="n">
-        <v>2889.909539403918</v>
+        <v>3065.099337250891</v>
       </c>
       <c r="X35" t="n">
-        <v>2507.879398925411</v>
+        <v>2683.069196772384</v>
       </c>
       <c r="Y35" t="n">
-        <v>2114.337543501249</v>
+        <v>2289.527341348222</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G36" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H36" t="n">
         <v>115.581576881063</v>
@@ -7022,19 +7022,19 @@
         <v>68.55268534786579</v>
       </c>
       <c r="L36" t="n">
-        <v>566.35713863456</v>
+        <v>514.7985411409164</v>
       </c>
       <c r="M36" t="n">
-        <v>1205.407970599382</v>
+        <v>1153.849373105738</v>
       </c>
       <c r="N36" t="n">
-        <v>1874.767479538482</v>
+        <v>1823.208882044838</v>
       </c>
       <c r="O36" t="n">
-        <v>2088.497259344154</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P36" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q36" t="n">
         <v>2506.667490147568</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>545.9903184205351</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="C37" t="n">
-        <v>376.3743488822154</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="D37" t="n">
-        <v>223.3024557099781</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="E37" t="n">
-        <v>223.3024557099781</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="F37" t="n">
-        <v>223.3024557099781</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="G37" t="n">
-        <v>223.3024557099781</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H37" t="n">
         <v>68.55268534786579</v>
@@ -7131,16 +7131,16 @@
         <v>744.857287752676</v>
       </c>
       <c r="V37" t="n">
-        <v>744.857287752676</v>
+        <v>484.1219833110986</v>
       </c>
       <c r="W37" t="n">
-        <v>744.857287752676</v>
+        <v>197.9655818284978</v>
       </c>
       <c r="X37" t="n">
-        <v>744.857287752676</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="Y37" t="n">
-        <v>545.9903184205351</v>
+        <v>68.55268534786579</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2258.018731972601</v>
+        <v>1613.384550286724</v>
       </c>
       <c r="C38" t="n">
-        <v>1876.084973305409</v>
+        <v>1613.384550286724</v>
       </c>
       <c r="D38" t="n">
-        <v>1503.261008532632</v>
+        <v>1613.384550286724</v>
       </c>
       <c r="E38" t="n">
         <v>1218.59883039283</v>
@@ -7183,7 +7183,7 @@
         <v>1148.797379660662</v>
       </c>
       <c r="M38" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N38" t="n">
         <v>2322.568598257194</v>
@@ -7201,25 +7201,25 @@
         <v>3427.63426739329</v>
       </c>
       <c r="S38" t="n">
-        <v>3427.63426739329</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="T38" t="n">
-        <v>3427.63426739329</v>
+        <v>3047.534683671597</v>
       </c>
       <c r="U38" t="n">
-        <v>3427.63426739329</v>
+        <v>2792.742079468542</v>
       </c>
       <c r="V38" t="n">
-        <v>3427.63426739329</v>
+        <v>2783.000085707411</v>
       </c>
       <c r="W38" t="n">
-        <v>3427.63426739329</v>
+        <v>2783.000085707411</v>
       </c>
       <c r="X38" t="n">
-        <v>3045.604126914783</v>
+        <v>2400.969945228905</v>
       </c>
       <c r="Y38" t="n">
-        <v>2652.062271490621</v>
+        <v>2007.428089804743</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G39" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H39" t="n">
         <v>115.581576881063</v>
@@ -7253,25 +7253,25 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J39" t="n">
-        <v>68.55268534786579</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K39" t="n">
-        <v>68.55268534786579</v>
+        <v>513.8824979542865</v>
       </c>
       <c r="L39" t="n">
-        <v>566.35713863456</v>
+        <v>624.8113720119189</v>
       </c>
       <c r="M39" t="n">
-        <v>882.312801287401</v>
+        <v>1263.862203976741</v>
       </c>
       <c r="N39" t="n">
-        <v>1551.672310226501</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O39" t="n">
-        <v>2088.497259344154</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P39" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q39" t="n">
         <v>2506.667490147568</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3091.345318596492</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="C40" t="n">
-        <v>2921.729349058172</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="D40" t="n">
-        <v>2768.657455885935</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="E40" t="n">
-        <v>2616.648441647254</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="F40" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="G40" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H40" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I40" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J40" t="n">
-        <v>2464.167786673031</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K40" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L40" t="n">
-        <v>2733.351086222692</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M40" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N40" t="n">
-        <v>3127.634270415695</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O40" t="n">
-        <v>3298.128711166522</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P40" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q40" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R40" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S40" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T40" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U40" t="n">
-        <v>3427.63426739329</v>
+        <v>846.6968553766683</v>
       </c>
       <c r="V40" t="n">
-        <v>3427.63426739329</v>
+        <v>585.9615509350908</v>
       </c>
       <c r="W40" t="n">
-        <v>3427.63426739329</v>
+        <v>299.80514945249</v>
       </c>
       <c r="X40" t="n">
-        <v>3427.63426739329</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="Y40" t="n">
-        <v>3274.900687280872</v>
+        <v>68.55268534786579</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1633.040964190656</v>
+        <v>2047.192154880486</v>
       </c>
       <c r="C41" t="n">
-        <v>1251.107205523464</v>
+        <v>1665.258396213294</v>
       </c>
       <c r="D41" t="n">
-        <v>878.2832407506874</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="E41" t="n">
-        <v>483.4975208567942</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="F41" t="n">
         <v>483.4975208567942</v>
@@ -7411,10 +7411,10 @@
         <v>68.55268534786579</v>
       </c>
       <c r="J41" t="n">
-        <v>236.9749331805676</v>
+        <v>236.9749331805679</v>
       </c>
       <c r="K41" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950429</v>
       </c>
       <c r="L41" t="n">
         <v>1148.797379660662</v>
@@ -7426,7 +7426,7 @@
         <v>2322.568598257194</v>
       </c>
       <c r="O41" t="n">
-        <v>2818.99054420136</v>
+        <v>2818.990544201361</v>
       </c>
       <c r="P41" t="n">
         <v>3210.517730076022</v>
@@ -7438,25 +7438,25 @@
         <v>3427.63426739329</v>
       </c>
       <c r="S41" t="n">
-        <v>3427.63426739329</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="T41" t="n">
-        <v>3427.63426739329</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="U41" t="n">
-        <v>3427.63426739329</v>
+        <v>3012.026842073573</v>
       </c>
       <c r="V41" t="n">
-        <v>3165.191429753743</v>
+        <v>3012.026842073573</v>
       </c>
       <c r="W41" t="n">
-        <v>2802.656499611344</v>
+        <v>3012.026842073573</v>
       </c>
       <c r="X41" t="n">
-        <v>2420.626359132837</v>
+        <v>2834.777549822667</v>
       </c>
       <c r="Y41" t="n">
-        <v>2027.084503708676</v>
+        <v>2441.235694398506</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G42" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H42" t="n">
         <v>115.581576881063</v>
@@ -7493,22 +7493,22 @@
         <v>68.55268534786579</v>
       </c>
       <c r="K42" t="n">
-        <v>68.55268534786579</v>
+        <v>155.3190992754846</v>
       </c>
       <c r="L42" t="n">
-        <v>89.08561422900803</v>
+        <v>653.1235525621788</v>
       </c>
       <c r="M42" t="n">
-        <v>646.9485681965875</v>
+        <v>1292.174384527</v>
       </c>
       <c r="N42" t="n">
-        <v>1316.308077135688</v>
+        <v>1961.533893466101</v>
       </c>
       <c r="O42" t="n">
-        <v>1853.133026253341</v>
+        <v>2498.358842583754</v>
       </c>
       <c r="P42" t="n">
-        <v>2271.303257056754</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="Q42" t="n">
         <v>2506.667490147568</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>643.8154367342247</v>
+        <v>558.5774625070703</v>
       </c>
       <c r="C43" t="n">
-        <v>474.199467195905</v>
+        <v>388.9614929687506</v>
       </c>
       <c r="D43" t="n">
-        <v>321.1275740236676</v>
+        <v>388.9614929687506</v>
       </c>
       <c r="E43" t="n">
-        <v>321.1275740236676</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="F43" t="n">
-        <v>197.1192573195279</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="G43" t="n">
-        <v>197.1192573195279</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H43" t="n">
-        <v>197.1192573195279</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I43" t="n">
         <v>68.55268534786579</v>
@@ -7596,25 +7596,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S43" t="n">
-        <v>827.3708054186045</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T43" t="n">
-        <v>827.3708054186045</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U43" t="n">
-        <v>827.3708054186045</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="V43" t="n">
-        <v>827.3708054186045</v>
+        <v>964.1679899991731</v>
       </c>
       <c r="W43" t="n">
-        <v>827.3708054186045</v>
+        <v>964.1679899991731</v>
       </c>
       <c r="X43" t="n">
-        <v>827.3708054186045</v>
+        <v>964.1679899991731</v>
       </c>
       <c r="Y43" t="n">
-        <v>827.3708054186045</v>
+        <v>742.1328311914501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2055.907899702469</v>
+        <v>1793.387424655043</v>
       </c>
       <c r="C44" t="n">
-        <v>1673.974141035276</v>
+        <v>1793.387424655043</v>
       </c>
       <c r="D44" t="n">
-        <v>1301.1501762625</v>
+        <v>1420.563459882266</v>
       </c>
       <c r="E44" t="n">
-        <v>906.3644563686066</v>
+        <v>1025.777739988373</v>
       </c>
       <c r="F44" t="n">
-        <v>492.213265678777</v>
+        <v>611.6265492985435</v>
       </c>
       <c r="G44" t="n">
-        <v>77.26843016984856</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="H44" t="n">
-        <v>68.55268534786579</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="I44" t="n">
         <v>68.55268534786579</v>
       </c>
       <c r="J44" t="n">
-        <v>236.9749331805679</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K44" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L44" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M44" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N44" t="n">
         <v>2322.568598257194</v>
       </c>
       <c r="O44" t="n">
-        <v>2818.990544201361</v>
+        <v>2818.99054420136</v>
       </c>
       <c r="P44" t="n">
         <v>3210.517730076022</v>
@@ -7681,19 +7681,19 @@
         <v>3029.70991848809</v>
       </c>
       <c r="U44" t="n">
-        <v>2774.917314285035</v>
+        <v>2905.938694661771</v>
       </c>
       <c r="V44" t="n">
-        <v>2437.938040180976</v>
+        <v>2568.959420557712</v>
       </c>
       <c r="W44" t="n">
-        <v>2437.938040180976</v>
+        <v>2568.959420557712</v>
       </c>
       <c r="X44" t="n">
-        <v>2055.907899702469</v>
+        <v>2186.929280079205</v>
       </c>
       <c r="Y44" t="n">
-        <v>2055.907899702469</v>
+        <v>1793.387424655043</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>68.55268534786579</v>
       </c>
       <c r="L45" t="n">
-        <v>89.08561422900803</v>
+        <v>514.7985411409167</v>
       </c>
       <c r="M45" t="n">
-        <v>728.1364461938297</v>
+        <v>1153.849373105738</v>
       </c>
       <c r="N45" t="n">
-        <v>1397.49595513293</v>
+        <v>1823.208882044838</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.320904250583</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P45" t="n">
-        <v>2352.491135053996</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q45" t="n">
         <v>2506.667490147568</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>545.9903184205351</v>
+        <v>390.0243719023067</v>
       </c>
       <c r="C46" t="n">
-        <v>376.3743488822154</v>
+        <v>390.0243719023067</v>
       </c>
       <c r="D46" t="n">
-        <v>223.3024557099781</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="E46" t="n">
-        <v>223.3024557099781</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="F46" t="n">
-        <v>223.3024557099781</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="G46" t="n">
-        <v>223.3024557099781</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H46" t="n">
         <v>68.55268534786579</v>
@@ -7830,28 +7830,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R46" t="n">
-        <v>905.8764634664541</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S46" t="n">
-        <v>905.8764634664541</v>
+        <v>872.794835151607</v>
       </c>
       <c r="T46" t="n">
-        <v>905.8764634664541</v>
+        <v>872.794835151607</v>
       </c>
       <c r="U46" t="n">
-        <v>618.7145851510056</v>
+        <v>872.794835151607</v>
       </c>
       <c r="V46" t="n">
-        <v>545.9903184205351</v>
+        <v>612.0595307100297</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9903184205351</v>
+        <v>612.0595307100297</v>
       </c>
       <c r="X46" t="n">
-        <v>545.9903184205351</v>
+        <v>612.0595307100297</v>
       </c>
       <c r="Y46" t="n">
-        <v>545.9903184205351</v>
+        <v>390.0243719023067</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>324.9477342979506</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>112.5754335711478</v>
@@ -8072,7 +8072,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>493.1639412413467</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
@@ -8294,13 +8294,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>110.8430489735533</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>324.9477342979506</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
@@ -8309,7 +8309,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
@@ -8534,10 +8534,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8546,10 +8546,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
-        <v>512.0210150597484</v>
+        <v>428.7943191257726</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
         <v>273.1004740566038</v>
@@ -8768,7 +8768,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>83.74785933339986</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8780,16 +8780,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836201</v>
       </c>
       <c r="O12" t="n">
-        <v>450.0846164268622</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.64858173562189</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9017,16 +9017,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836201</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>271.8947139899012</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.64858173562189</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9251,13 +9251,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>277.8578053120008</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>184.4622374967487</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9479,16 +9479,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>83.74785933339984</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>96.41651716248384</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>277.8578053120004</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9719,13 +9719,13 @@
         <v>45.04618048305564</v>
       </c>
       <c r="K24" t="n">
-        <v>12.84888003398909</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>41.31617640753105</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9734,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>362.1034971437667</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>35.35882446992308</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9956,25 +9956,25 @@
         <v>45.04618048305564</v>
       </c>
       <c r="K27" t="n">
-        <v>12.84888003398909</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>59.04468017915062</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>362.1034971437667</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>35.35882446992308</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,28 +10190,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>45.04618048305564</v>
+        <v>45.04618048305563</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>309.63520979982</v>
       </c>
       <c r="L30" t="n">
-        <v>238.7793631632639</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.35882446992308</v>
+        <v>35.35882446992306</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,13 +10427,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>45.04618048305563</v>
       </c>
       <c r="K33" t="n">
-        <v>12.84888003398909</v>
+        <v>12.84888003398906</v>
       </c>
       <c r="L33" t="n">
-        <v>450.8631257861512</v>
+        <v>155.7336920137084</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10445,10 +10445,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.35882446992308</v>
+        <v>35.35882446992306</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10664,13 +10664,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>45.04618048305564</v>
+        <v>45.04618048305563</v>
       </c>
       <c r="K36" t="n">
-        <v>12.84888003398909</v>
+        <v>12.84888003398906</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>430.0130574867761</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10679,13 +10679,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>185.6622581789597</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.35882446992308</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10901,19 +10901,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>45.04618048305564</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>12.84888003398909</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>91.30903553180829</v>
       </c>
       <c r="M39" t="n">
-        <v>279.0578259942114</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10922,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.35882446992308</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11138,16 +11138,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>45.04618048305564</v>
+        <v>45.04618048305563</v>
       </c>
       <c r="K42" t="n">
-        <v>12.84888003398909</v>
+        <v>100.4917223851191</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>523.408625302028</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
@@ -11156,10 +11156,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>35.35882446992306</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11317,7 +11317,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.009487857876</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11381,7 +11381,7 @@
         <v>12.84888003398909</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>430.0130574867764</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -11390,13 +11390,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>191.0925164836318</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180442</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
         <v>176.6529755334452</v>
@@ -23314,19 +23314,19 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U11" t="n">
-        <v>252.305926837283</v>
+        <v>14.78841104969774</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.65412462755415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23439,7 +23439,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80540818138465</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U13" t="n">
-        <v>196.0578859320889</v>
+        <v>83.74778132571328</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>283.2948374677749</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>278.6631664791219</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>208.379656017095</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I14" t="n">
         <v>156.363858050434</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180442</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>252.305926837283</v>
@@ -23563,7 +23563,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>150.4889240962943</v>
@@ -23676,7 +23676,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138465</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U16" t="n">
-        <v>196.0578859320889</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>157.8666647968959</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>208.3796560170945</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I17" t="n">
         <v>156.363858050434</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.73916953180442</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S17" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T17" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>356.8534151133193</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>105.5354546505017</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -23907,13 +23907,13 @@
         <v>167.0592210434877</v>
       </c>
       <c r="H19" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>137.6086505120454</v>
       </c>
       <c r="J19" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.80540818138465</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R19" t="n">
         <v>140.32293915197</v>
@@ -23949,7 +23949,7 @@
         <v>284.3089918374816</v>
       </c>
       <c r="V19" t="n">
-        <v>93.96158562518718</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>239.0535311242951</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H20" t="n">
         <v>325.5814052293737</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.73916953180441</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>112.1001140676342</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,22 +24135,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>142.4358999854604</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>141.0123871457703</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.80540818138464</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R22" t="n">
         <v>140.32293915197</v>
@@ -24180,10 +24180,10 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T22" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -24208,10 +24208,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>148.6795657051159</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>119.5250222888946</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>17.64651753167264</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -24414,25 +24414,25 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S25" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>284.290259532294</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>247.780542403688</v>
       </c>
       <c r="W25" t="n">
-        <v>200.9475519516462</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.033251850320198</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>377.2369911690188</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
         <v>151.5411742405149</v>
@@ -24612,13 +24612,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>39.99607307368012</v>
       </c>
       <c r="G28" t="n">
         <v>166.7157954483816</v>
       </c>
       <c r="H28" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>127.2809062519456</v>
@@ -24651,19 +24651,19 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S28" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>228.6477529452049</v>
       </c>
       <c r="U28" t="n">
-        <v>10.61303039352725</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>397.948844146131</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>17.64651753167264</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>143.6554376430125</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
@@ -24861,7 +24861,7 @@
         <v>127.2809062519456</v>
       </c>
       <c r="J31" t="n">
-        <v>23.06343839047421</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>202.601877043025</v>
       </c>
       <c r="T31" t="n">
-        <v>228.6477529452049</v>
+        <v>71.34097349579557</v>
       </c>
       <c r="U31" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.8346437313984</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>343.4272582672171</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S32" t="n">
-        <v>159.2066729054946</v>
+        <v>108.0890503851395</v>
       </c>
       <c r="T32" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -25089,7 +25089,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.7157954483816</v>
+        <v>164.9665228613759</v>
       </c>
       <c r="H34" t="n">
         <v>153.2022726584912</v>
@@ -25098,7 +25098,7 @@
         <v>127.2809062519456</v>
       </c>
       <c r="J34" t="n">
-        <v>23.06343839047421</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.34571963510371</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>98.83616205247657</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U35" t="n">
-        <v>113.8423028676947</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -25329,13 +25329,13 @@
         <v>166.7157954483816</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I37" t="n">
         <v>127.2809062519456</v>
       </c>
       <c r="J37" t="n">
-        <v>23.06343839047421</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>100.8211719477524</v>
       </c>
       <c r="Y37" t="n">
-        <v>22.93650758082617</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>109.0223063365503</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>17.64651753167264</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S38" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>323.9649075394991</v>
       </c>
       <c r="W38" t="n">
         <v>358.909580840975</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>166.7157954483816</v>
@@ -25572,7 +25572,7 @@
         <v>127.2809062519456</v>
       </c>
       <c r="J40" t="n">
-        <v>23.06343839047421</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>228.6477529452049</v>
       </c>
       <c r="U40" t="n">
-        <v>284.290259532294</v>
+        <v>100.8211719477522</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.60856290835216</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>17.64651753167264</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S41" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.0919149789806</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>73.79107209986728</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>202.7330397453252</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,25 +25791,25 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>28.18761488738235</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>153.2022726584912</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>127.2809062519456</v>
       </c>
       <c r="J43" t="n">
-        <v>23.06343839047421</v>
+        <v>23.0634383904742</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T43" t="n">
         <v>228.6477529452049</v>
@@ -25845,7 +25845,7 @@
         <v>284.290259532294</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>190.9552870888996</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
@@ -25854,7 +25854,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>309.1120302839817</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I44" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>129.7111665729686</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I46" t="n">
         <v>127.2809062519456</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S46" t="n">
-        <v>202.601877043025</v>
+        <v>44.96978943567254</v>
       </c>
       <c r="T46" t="n">
         <v>228.6477529452049</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V46" t="n">
-        <v>186.1309273339958</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
@@ -26091,7 +26091,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>528875.7761249808</v>
+        <v>528875.7761249806</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>528875.7761249805</v>
+        <v>528875.7761249806</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>616068.3613155477</v>
+        <v>616068.361315548</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>616068.3613155477</v>
+        <v>616068.3613155476</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>616068.361315548</v>
+        <v>616068.3613155477</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>616068.361315548</v>
+        <v>616068.3613155478</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>616068.3613155477</v>
+        <v>616068.3613155476</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>556527.4438582816</v>
+        <v>556527.4438582815</v>
       </c>
       <c r="C2" t="n">
-        <v>556527.4438582814</v>
+        <v>556527.4438582815</v>
       </c>
       <c r="D2" t="n">
-        <v>556527.4438582816</v>
+        <v>556527.4438582819</v>
       </c>
       <c r="E2" t="n">
-        <v>366067.0873347091</v>
+        <v>366067.0873347089</v>
       </c>
       <c r="F2" t="n">
-        <v>366067.087334709</v>
+        <v>366067.0873347088</v>
       </c>
       <c r="G2" t="n">
         <v>366067.0873347091</v>
@@ -26334,28 +26334,28 @@
         <v>366067.087334709</v>
       </c>
       <c r="I2" t="n">
-        <v>428254.5013784761</v>
+        <v>428254.5013784757</v>
       </c>
       <c r="J2" t="n">
-        <v>428254.5013784762</v>
+        <v>428254.5013784757</v>
       </c>
       <c r="K2" t="n">
         <v>428254.5013784759</v>
       </c>
       <c r="L2" t="n">
+        <v>428254.5013784757</v>
+      </c>
+      <c r="M2" t="n">
+        <v>428254.5013784758</v>
+      </c>
+      <c r="N2" t="n">
         <v>428254.5013784759</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>428254.5013784759</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>428254.5013784758</v>
-      </c>
-      <c r="O2" t="n">
-        <v>428254.5013784758</v>
-      </c>
-      <c r="P2" t="n">
-        <v>428254.5013784762</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>109285.8666493013</v>
+        <v>109285.8666493012</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>202188.2862928655</v>
+        <v>202188.2862928656</v>
       </c>
       <c r="J3" t="n">
         <v>137442.4307917771</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27504.83665689657</v>
+        <v>27504.83665689654</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196979.4332140584</v>
+        <v>196979.4332140583</v>
       </c>
       <c r="C4" t="n">
         <v>196979.4332140583</v>
       </c>
       <c r="D4" t="n">
-        <v>196979.4332140584</v>
+        <v>196979.4332140583</v>
       </c>
       <c r="E4" t="n">
         <v>11817.77554084265</v>
@@ -26478,16 +26478,16 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>40720.20246230469</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="F5" t="n">
         <v>40720.20246230468</v>
       </c>
       <c r="G5" t="n">
-        <v>40720.20246230469</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="H5" t="n">
-        <v>40720.20246230469</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="I5" t="n">
         <v>58322.96928678589</v>
@@ -26524,46 +26524,46 @@
         <v>117940.7912897844</v>
       </c>
       <c r="C6" t="n">
-        <v>293981.9760073116</v>
+        <v>293981.9760073117</v>
       </c>
       <c r="D6" t="n">
-        <v>293981.9760073118</v>
+        <v>293981.9760073122</v>
       </c>
       <c r="E6" t="n">
-        <v>204243.2426822605</v>
+        <v>197675.6441814475</v>
       </c>
       <c r="F6" t="n">
-        <v>313529.1093315616</v>
+        <v>306961.5108307487</v>
       </c>
       <c r="G6" t="n">
-        <v>313529.1093315618</v>
+        <v>306961.5108307489</v>
       </c>
       <c r="H6" t="n">
-        <v>313529.1093315617</v>
+        <v>306961.5108307488</v>
       </c>
       <c r="I6" t="n">
-        <v>156541.3539055867</v>
+        <v>152118.1489924895</v>
       </c>
       <c r="J6" t="n">
-        <v>221287.2094066752</v>
+        <v>216864.004493578</v>
       </c>
       <c r="K6" t="n">
-        <v>358729.640198452</v>
+        <v>354306.4352853553</v>
       </c>
       <c r="L6" t="n">
-        <v>358729.640198452</v>
+        <v>354306.4352853551</v>
       </c>
       <c r="M6" t="n">
-        <v>331224.8035415554</v>
+        <v>326801.5986284587</v>
       </c>
       <c r="N6" t="n">
-        <v>358729.6401984519</v>
+        <v>354306.4352853553</v>
       </c>
       <c r="O6" t="n">
-        <v>358729.6401984519</v>
+        <v>354306.4352853553</v>
       </c>
       <c r="P6" t="n">
-        <v>358729.6401984523</v>
+        <v>354306.4352853552</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="F3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="G3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988881</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="I3" t="n">
         <v>285.4554322205455</v>
@@ -26764,19 +26764,19 @@
         <v>285.4554322205455</v>
       </c>
       <c r="K3" t="n">
-        <v>285.4554322205455</v>
+        <v>285.4554322205456</v>
       </c>
       <c r="L3" t="n">
-        <v>285.4554322205455</v>
+        <v>285.4554322205456</v>
       </c>
       <c r="M3" t="n">
-        <v>285.4554322205455</v>
+        <v>285.4554322205456</v>
       </c>
       <c r="N3" t="n">
-        <v>285.4554322205455</v>
+        <v>285.4554322205456</v>
       </c>
       <c r="O3" t="n">
-        <v>285.4554322205455</v>
+        <v>285.4554322205456</v>
       </c>
       <c r="P3" t="n">
         <v>285.4554322205455</v>
@@ -26798,16 +26798,16 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>635.6739684151828</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="F4" t="n">
         <v>635.6739684151827</v>
       </c>
       <c r="G4" t="n">
-        <v>635.6739684151828</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="H4" t="n">
-        <v>635.6739684151828</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="I4" t="n">
         <v>856.9085668483224</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.0103294798888</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>190.4451027406567</v>
+        <v>190.4451027406568</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>110.3707671501925</v>
+        <v>110.3707671501924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>221.2345984331396</v>
+        <v>221.2345984331397</v>
       </c>
       <c r="J4" t="n">
         <v>525.3032012649903</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501925</v>
+        <v>110.3707671501924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501925</v>
+        <v>110.3707671501924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>133.6035419151749</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>5.411175088562459</v>
       </c>
     </row>
     <row r="3">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.5778628105009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>63.70773940111974</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27599,7 +27599,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>6.280817577498965</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>110.9832044235802</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>218.9894808902999</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>95.40401472533472</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>42.71577926664513</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>72.0068573611543</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27842,7 +27842,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>9.904448708706013</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -27906,19 +27906,19 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>39.06856679215983</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>97.62948669858324</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>57.60636999204331</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28067,7 +28067,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28076,10 +28076,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>45.97628998586501</v>
+        <v>163.1925750872556</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859848</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H11" t="n">
-        <v>3.911656429290093</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I11" t="n">
-        <v>14.72516875285794</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630638</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K11" t="n">
-        <v>48.58560883850213</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L11" t="n">
-        <v>60.2747439975781</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712772</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N11" t="n">
-        <v>68.15248488410154</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911402</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736627</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531192</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504388</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T11" t="n">
-        <v>1.671990823309399</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287878</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2043618407680627</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689879</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J12" t="n">
-        <v>19.30771233326684</v>
+        <v>19.30771233326682</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472704</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869713</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653939</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N12" t="n">
-        <v>53.15110875309365</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712762</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P12" t="n">
-        <v>39.0241483480698</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.0866097092706</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R12" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S12" t="n">
-        <v>3.79593155988046</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133752</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H13" t="n">
-        <v>1.523280364448054</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302823</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J13" t="n">
-        <v>12.11303823549336</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K13" t="n">
-        <v>19.90544279922915</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L13" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M13" t="n">
-        <v>26.8567723151102</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N13" t="n">
-        <v>26.21817829729457</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492524</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.34655975146321</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R13" t="n">
-        <v>7.70362441979557</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884373</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106184</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497268</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819510732859848</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H14" t="n">
-        <v>3.911656429290093</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I14" t="n">
-        <v>14.72516875285794</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J14" t="n">
-        <v>32.41761990630638</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K14" t="n">
-        <v>48.58560883850213</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L14" t="n">
-        <v>60.2747439975781</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M14" t="n">
-        <v>67.06726639712772</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N14" t="n">
-        <v>68.15248488410154</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911402</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P14" t="n">
-        <v>54.92504177736627</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.24641896531192</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504388</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T14" t="n">
-        <v>1.671990823309399</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287878</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2043618407680627</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H15" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689879</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J15" t="n">
-        <v>19.30771233326684</v>
+        <v>19.30771233326682</v>
       </c>
       <c r="K15" t="n">
-        <v>32.99995566472704</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L15" t="n">
-        <v>44.37251283869713</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M15" t="n">
-        <v>51.78062956653939</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N15" t="n">
-        <v>53.15110875309365</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O15" t="n">
-        <v>48.62288059712762</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P15" t="n">
-        <v>39.0241483480698</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.0866097092706</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R15" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S15" t="n">
-        <v>3.79593155988046</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133752</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H16" t="n">
-        <v>1.523280364448054</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I16" t="n">
-        <v>5.152363441302823</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J16" t="n">
-        <v>12.11303823549336</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K16" t="n">
-        <v>19.90544279922915</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L16" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M16" t="n">
-        <v>26.8567723151102</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N16" t="n">
-        <v>26.21817829729457</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O16" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P16" t="n">
-        <v>20.72159710492524</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.34655975146321</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R16" t="n">
-        <v>7.70362441979557</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S16" t="n">
-        <v>2.985816419884373</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7320468009106184</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009345278309497268</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3819510732859848</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H17" t="n">
-        <v>3.911656429290093</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I17" t="n">
-        <v>14.72516875285794</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J17" t="n">
-        <v>32.41761990630638</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K17" t="n">
-        <v>48.58560883850213</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L17" t="n">
-        <v>60.2747439975781</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M17" t="n">
-        <v>67.06726639712772</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N17" t="n">
-        <v>68.15248488410154</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O17" t="n">
-        <v>64.35445889911402</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P17" t="n">
-        <v>54.92504177736627</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.24641896531192</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R17" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S17" t="n">
-        <v>8.703710082504388</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T17" t="n">
-        <v>1.671990823309399</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03055608586287878</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2043618407680627</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H18" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I18" t="n">
-        <v>7.036142324689879</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J18" t="n">
-        <v>19.30771233326684</v>
+        <v>19.30771233326682</v>
       </c>
       <c r="K18" t="n">
-        <v>32.99995566472704</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L18" t="n">
-        <v>44.37251283869713</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M18" t="n">
-        <v>51.78062956653939</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N18" t="n">
-        <v>53.15110875309365</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O18" t="n">
-        <v>48.62288059712762</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P18" t="n">
-        <v>39.0241483480698</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.0866097092706</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R18" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S18" t="n">
-        <v>3.79593155988046</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133752</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H19" t="n">
-        <v>1.523280364448054</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I19" t="n">
-        <v>5.152363441302823</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J19" t="n">
-        <v>12.11303823549336</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K19" t="n">
-        <v>19.90544279922915</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L19" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M19" t="n">
-        <v>26.8567723151102</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N19" t="n">
-        <v>26.21817829729457</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O19" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P19" t="n">
-        <v>20.72159710492524</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.34655975146321</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R19" t="n">
-        <v>7.70362441979557</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S19" t="n">
-        <v>2.985816419884373</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7320468009106184</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009345278309497268</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3819510732859849</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H20" t="n">
-        <v>3.911656429290093</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I20" t="n">
-        <v>14.72516875285795</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J20" t="n">
-        <v>32.41761990630639</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K20" t="n">
-        <v>48.58560883850214</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757811</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712774</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N20" t="n">
-        <v>68.15248488410155</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911404</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P20" t="n">
-        <v>54.92504177736627</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.24641896531192</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R20" t="n">
-        <v>23.99273410730077</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S20" t="n">
-        <v>8.703710082504388</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6719908233094</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03055608586287878</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2043618407680627</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H21" t="n">
-        <v>1.973705146365238</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I21" t="n">
-        <v>7.03614232468988</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J21" t="n">
-        <v>19.30771233326684</v>
+        <v>19.30771233326682</v>
       </c>
       <c r="K21" t="n">
-        <v>32.99995566472705</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L21" t="n">
-        <v>44.37251283869713</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M21" t="n">
-        <v>51.7806295665394</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N21" t="n">
-        <v>53.15110875309365</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O21" t="n">
-        <v>48.62288059712763</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P21" t="n">
-        <v>39.02414834806981</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.08660970927061</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R21" t="n">
-        <v>12.68836060488025</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S21" t="n">
-        <v>3.795931559880461</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133753</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01344485794526729</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1713301023407831</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H22" t="n">
-        <v>1.523280364448054</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I22" t="n">
-        <v>5.152363441302824</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J22" t="n">
-        <v>12.11303823549336</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K22" t="n">
-        <v>19.90544279922916</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L22" t="n">
-        <v>25.4721135789197</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M22" t="n">
-        <v>26.8567723151102</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N22" t="n">
-        <v>26.21817829729458</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O22" t="n">
-        <v>24.21673119267724</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P22" t="n">
-        <v>20.72159710492525</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.34655975146321</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795572</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S22" t="n">
-        <v>2.985816419884373</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106185</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00934527830949727</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33180,16 +33180,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I29" t="n">
-        <v>44.24128864596013</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J29" t="n">
-        <v>97.39768036353178</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K29" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L29" t="n">
-        <v>181.0934999804773</v>
+        <v>181.0934999804774</v>
       </c>
       <c r="M29" t="n">
         <v>201.5014117101341</v>
@@ -33201,22 +33201,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P29" t="n">
-        <v>165.02049436223</v>
+        <v>165.0204943622301</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.9235188189203</v>
+        <v>123.9235188189204</v>
       </c>
       <c r="R29" t="n">
-        <v>72.08538610743254</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S29" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T29" t="n">
-        <v>5.023441827318342</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09180476212118037</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6139984768517394</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H30" t="n">
-        <v>5.929932658015484</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I30" t="n">
-        <v>21.13985983897436</v>
+        <v>21.13985983897437</v>
       </c>
       <c r="J30" t="n">
         <v>58.00939118361106</v>
       </c>
       <c r="K30" t="n">
-        <v>99.14728913267759</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L30" t="n">
         <v>133.3157657743218</v>
@@ -33283,19 +33283,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.37636697496941</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R30" t="n">
-        <v>38.12176508032117</v>
+        <v>38.12176508032118</v>
       </c>
       <c r="S30" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T30" t="n">
-        <v>2.474844737836615</v>
+        <v>2.474844737836616</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04039463663498287</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,43 +33332,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5147556974468853</v>
+        <v>0.5147556974468854</v>
       </c>
       <c r="H31" t="n">
-        <v>4.576646110027765</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I31" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J31" t="n">
-        <v>36.39322780949479</v>
+        <v>36.3932278094948</v>
       </c>
       <c r="K31" t="n">
-        <v>59.80525284882902</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L31" t="n">
-        <v>76.5301334186033</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M31" t="n">
-        <v>80.69029537342402</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N31" t="n">
-        <v>78.77166050112206</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O31" t="n">
-        <v>72.7583780354925</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P31" t="n">
-        <v>62.25736180757599</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.10377026530237</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R31" t="n">
-        <v>23.14528799611176</v>
+        <v>23.14528799611177</v>
       </c>
       <c r="S31" t="n">
-        <v>8.970787927324352</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T31" t="n">
         <v>2.199410707273055</v>
@@ -33417,16 +33417,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I32" t="n">
-        <v>44.24128864596013</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J32" t="n">
-        <v>97.39768036353178</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K32" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L32" t="n">
-        <v>181.0934999804773</v>
+        <v>181.0934999804774</v>
       </c>
       <c r="M32" t="n">
         <v>201.5014117101341</v>
@@ -33438,22 +33438,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P32" t="n">
-        <v>165.02049436223</v>
+        <v>165.0204943622301</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.9235188189203</v>
+        <v>123.9235188189204</v>
       </c>
       <c r="R32" t="n">
-        <v>72.08538610743254</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S32" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T32" t="n">
-        <v>5.023441827318342</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09180476212118037</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6139984768517394</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H33" t="n">
-        <v>5.929932658015484</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I33" t="n">
-        <v>21.13985983897436</v>
+        <v>21.13985983897437</v>
       </c>
       <c r="J33" t="n">
         <v>58.00939118361106</v>
       </c>
       <c r="K33" t="n">
-        <v>99.14728913267759</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L33" t="n">
         <v>133.3157657743218</v>
@@ -33520,19 +33520,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.37636697496941</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R33" t="n">
-        <v>38.12176508032117</v>
+        <v>38.12176508032118</v>
       </c>
       <c r="S33" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T33" t="n">
-        <v>2.474844737836615</v>
+        <v>2.474844737836616</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04039463663498287</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,43 +33569,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5147556974468853</v>
+        <v>0.5147556974468854</v>
       </c>
       <c r="H34" t="n">
-        <v>4.576646110027765</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I34" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J34" t="n">
-        <v>36.39322780949479</v>
+        <v>36.3932278094948</v>
       </c>
       <c r="K34" t="n">
-        <v>59.80525284882902</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L34" t="n">
-        <v>76.5301334186033</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M34" t="n">
-        <v>80.69029537342402</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N34" t="n">
-        <v>78.77166050112206</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O34" t="n">
-        <v>72.7583780354925</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P34" t="n">
-        <v>62.25736180757599</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.10377026530237</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R34" t="n">
-        <v>23.14528799611176</v>
+        <v>23.14528799611177</v>
       </c>
       <c r="S34" t="n">
-        <v>8.970787927324352</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T34" t="n">
         <v>2.199410707273055</v>
@@ -33654,16 +33654,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I35" t="n">
-        <v>44.24128864596013</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J35" t="n">
-        <v>97.39768036353178</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K35" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L35" t="n">
-        <v>181.0934999804773</v>
+        <v>181.0934999804774</v>
       </c>
       <c r="M35" t="n">
         <v>201.5014117101341</v>
@@ -33675,22 +33675,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P35" t="n">
-        <v>165.02049436223</v>
+        <v>165.0204943622301</v>
       </c>
       <c r="Q35" t="n">
-        <v>123.9235188189203</v>
+        <v>123.9235188189204</v>
       </c>
       <c r="R35" t="n">
-        <v>72.08538610743254</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S35" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T35" t="n">
-        <v>5.023441827318342</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09180476212118037</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6139984768517394</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H36" t="n">
-        <v>5.929932658015484</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I36" t="n">
-        <v>21.13985983897436</v>
+        <v>21.13985983897437</v>
       </c>
       <c r="J36" t="n">
         <v>58.00939118361106</v>
       </c>
       <c r="K36" t="n">
-        <v>99.14728913267759</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L36" t="n">
         <v>133.3157657743218</v>
@@ -33757,19 +33757,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.37636697496941</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R36" t="n">
-        <v>38.12176508032117</v>
+        <v>38.12176508032118</v>
       </c>
       <c r="S36" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T36" t="n">
-        <v>2.474844737836615</v>
+        <v>2.474844737836616</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04039463663498287</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,43 +33806,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5147556974468853</v>
+        <v>0.5147556974468854</v>
       </c>
       <c r="H37" t="n">
-        <v>4.576646110027765</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I37" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J37" t="n">
-        <v>36.39322780949479</v>
+        <v>36.3932278094948</v>
       </c>
       <c r="K37" t="n">
-        <v>59.80525284882902</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L37" t="n">
-        <v>76.5301334186033</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M37" t="n">
-        <v>80.69029537342402</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N37" t="n">
-        <v>78.77166050112206</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O37" t="n">
-        <v>72.7583780354925</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P37" t="n">
-        <v>62.25736180757599</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q37" t="n">
-        <v>43.10377026530237</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R37" t="n">
-        <v>23.14528799611176</v>
+        <v>23.14528799611177</v>
       </c>
       <c r="S37" t="n">
-        <v>8.970787927324352</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T37" t="n">
         <v>2.199410707273055</v>
@@ -33891,16 +33891,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I38" t="n">
-        <v>44.24128864596013</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J38" t="n">
-        <v>97.39768036353178</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K38" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L38" t="n">
-        <v>181.0934999804773</v>
+        <v>181.0934999804774</v>
       </c>
       <c r="M38" t="n">
         <v>201.5014117101341</v>
@@ -33912,22 +33912,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P38" t="n">
-        <v>165.02049436223</v>
+        <v>165.0204943622301</v>
       </c>
       <c r="Q38" t="n">
-        <v>123.9235188189203</v>
+        <v>123.9235188189204</v>
       </c>
       <c r="R38" t="n">
-        <v>72.08538610743254</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S38" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T38" t="n">
-        <v>5.023441827318342</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09180476212118037</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6139984768517394</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H39" t="n">
-        <v>5.929932658015484</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I39" t="n">
-        <v>21.13985983897436</v>
+        <v>21.13985983897437</v>
       </c>
       <c r="J39" t="n">
         <v>58.00939118361106</v>
       </c>
       <c r="K39" t="n">
-        <v>99.14728913267759</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L39" t="n">
         <v>133.3157657743218</v>
@@ -33994,19 +33994,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.37636697496941</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R39" t="n">
-        <v>38.12176508032117</v>
+        <v>38.12176508032118</v>
       </c>
       <c r="S39" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T39" t="n">
-        <v>2.474844737836615</v>
+        <v>2.474844737836616</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04039463663498287</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,43 +34043,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5147556974468853</v>
+        <v>0.5147556974468854</v>
       </c>
       <c r="H40" t="n">
-        <v>4.576646110027765</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I40" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J40" t="n">
-        <v>36.39322780949479</v>
+        <v>36.3932278094948</v>
       </c>
       <c r="K40" t="n">
-        <v>59.80525284882902</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L40" t="n">
-        <v>76.5301334186033</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M40" t="n">
-        <v>80.69029537342402</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N40" t="n">
-        <v>78.77166050112206</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O40" t="n">
-        <v>72.7583780354925</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P40" t="n">
-        <v>62.25736180757599</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q40" t="n">
-        <v>43.10377026530237</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R40" t="n">
-        <v>23.14528799611176</v>
+        <v>23.14528799611177</v>
       </c>
       <c r="S40" t="n">
-        <v>8.970787927324352</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T40" t="n">
         <v>2.199410707273055</v>
@@ -34128,16 +34128,16 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I41" t="n">
-        <v>44.24128864596013</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J41" t="n">
-        <v>97.39768036353178</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K41" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L41" t="n">
-        <v>181.0934999804773</v>
+        <v>181.0934999804774</v>
       </c>
       <c r="M41" t="n">
         <v>201.5014117101341</v>
@@ -34149,22 +34149,22 @@
         <v>193.3508701730631</v>
       </c>
       <c r="P41" t="n">
-        <v>165.02049436223</v>
+        <v>165.0204943622301</v>
       </c>
       <c r="Q41" t="n">
-        <v>123.9235188189203</v>
+        <v>123.9235188189204</v>
       </c>
       <c r="R41" t="n">
-        <v>72.08538610743254</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S41" t="n">
         <v>26.15001271045501</v>
       </c>
       <c r="T41" t="n">
-        <v>5.023441827318342</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09180476212118037</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6139984768517394</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H42" t="n">
-        <v>5.929932658015484</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I42" t="n">
-        <v>21.13985983897436</v>
+        <v>21.13985983897437</v>
       </c>
       <c r="J42" t="n">
         <v>58.00939118361106</v>
       </c>
       <c r="K42" t="n">
-        <v>99.14728913267759</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L42" t="n">
         <v>133.3157657743218</v>
@@ -34231,19 +34231,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.37636697496941</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R42" t="n">
-        <v>38.12176508032117</v>
+        <v>38.12176508032118</v>
       </c>
       <c r="S42" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T42" t="n">
-        <v>2.474844737836615</v>
+        <v>2.474844737836616</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04039463663498287</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,43 +34280,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5147556974468853</v>
+        <v>0.5147556974468854</v>
       </c>
       <c r="H43" t="n">
-        <v>4.576646110027765</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I43" t="n">
         <v>15.4801077014027</v>
       </c>
       <c r="J43" t="n">
-        <v>36.39322780949479</v>
+        <v>36.3932278094948</v>
       </c>
       <c r="K43" t="n">
-        <v>59.80525284882902</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L43" t="n">
-        <v>76.5301334186033</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M43" t="n">
-        <v>80.69029537342402</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N43" t="n">
-        <v>78.77166050112206</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O43" t="n">
-        <v>72.7583780354925</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P43" t="n">
-        <v>62.25736180757599</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q43" t="n">
-        <v>43.10377026530237</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R43" t="n">
-        <v>23.14528799611176</v>
+        <v>23.14528799611177</v>
       </c>
       <c r="S43" t="n">
-        <v>8.970787927324352</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T43" t="n">
         <v>2.199410707273055</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>212.9515651312839</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>377.3044926302356</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.787477306886596</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
@@ -35029,7 +35029,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35266,10 +35266,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
-        <v>396.1615664486372</v>
+        <v>312.9348705146615</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>159.3652826117113</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>105.1434222020697</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K11" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L11" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M11" t="n">
         <v>464.2785454406509</v>
@@ -35424,13 +35424,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P11" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q11" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K12" t="n">
-        <v>264.8085946144126</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
@@ -35500,16 +35500,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N12" t="n">
-        <v>569.5810543320049</v>
+        <v>242.0222767690054</v>
       </c>
       <c r="O12" t="n">
-        <v>382.8480484128787</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>53.84906678371745</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L13" t="n">
-        <v>127.0954261044344</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M13" t="n">
         <v>146.0421320399604</v>
@@ -35582,10 +35582,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O13" t="n">
-        <v>123.6749599762022</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P13" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>105.1434222020697</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K14" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L14" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M14" t="n">
         <v>464.2785454406509</v>
@@ -35661,13 +35661,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O14" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P14" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q14" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.17048660913163</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K15" t="n">
-        <v>264.8085946144126</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L15" t="n">
         <v>413.8895281620462</v>
@@ -35737,16 +35737,16 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N15" t="n">
-        <v>569.5810543320049</v>
+        <v>242.0222767690054</v>
       </c>
       <c r="O15" t="n">
-        <v>444.7844470457649</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P15" t="n">
-        <v>202.0646563138277</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>53.84906678371745</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L16" t="n">
-        <v>127.0954261044344</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M16" t="n">
         <v>146.0421320399604</v>
@@ -35819,10 +35819,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O16" t="n">
-        <v>123.6749599762022</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P16" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>105.1434222020697</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K17" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L17" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M17" t="n">
         <v>464.2785454406509</v>
@@ -35898,13 +35898,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O17" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P17" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q17" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>80.17048660913163</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K18" t="n">
-        <v>264.8085946144126</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L18" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M18" t="n">
-        <v>541.7133098798994</v>
+        <v>214.1545323169003</v>
       </c>
       <c r="N18" t="n">
-        <v>569.5810543320049</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O18" t="n">
-        <v>117.2256694827652</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P18" t="n">
         <v>344.1715415558448</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>53.84906678371745</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L19" t="n">
-        <v>127.0954261044344</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M19" t="n">
         <v>146.0421320399604</v>
@@ -36056,10 +36056,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O19" t="n">
-        <v>123.6749599762022</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P19" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>105.1434222020697</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K20" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L20" t="n">
-        <v>411.6741107500491</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M20" t="n">
         <v>464.2785454406509</v>
       </c>
       <c r="N20" t="n">
-        <v>450.3053724474508</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O20" t="n">
-        <v>372.4398977605625</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P20" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q20" t="n">
-        <v>136.6325338001978</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K21" t="n">
-        <v>17.42030366054421</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L21" t="n">
-        <v>413.8895281620463</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M21" t="n">
-        <v>541.7133098798994</v>
+        <v>214.1545323168998</v>
       </c>
       <c r="N21" t="n">
-        <v>569.5810543320049</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O21" t="n">
-        <v>444.7844470457649</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P21" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q21" t="n">
-        <v>185.451892320982</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>53.84906678371745</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L22" t="n">
-        <v>127.0954261044344</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M22" t="n">
         <v>146.0421320399604</v>
@@ -36293,10 +36293,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O22" t="n">
-        <v>123.6749599762022</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P22" t="n">
-        <v>84.32612612324625</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>330.9559280823631</v>
       </c>
       <c r="L24" t="n">
         <v>502.8327810976709</v>
       </c>
       <c r="M24" t="n">
-        <v>81.40548440608843</v>
+        <v>40.08930799855739</v>
       </c>
       <c r="N24" t="n">
         <v>676.1207161001012</v>
@@ -36454,10 +36454,10 @@
         <v>542.2474233511649</v>
       </c>
       <c r="P24" t="n">
-        <v>422.3941725287006</v>
+        <v>370.4960704405489</v>
       </c>
       <c r="Q24" t="n">
-        <v>237.7416495866808</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>330.9559280823631</v>
       </c>
       <c r="L27" t="n">
         <v>502.8327810976709</v>
       </c>
       <c r="M27" t="n">
-        <v>645.5058908735573</v>
+        <v>40.08930799855739</v>
       </c>
       <c r="N27" t="n">
-        <v>112.0203096326322</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O27" t="n">
         <v>542.2474233511649</v>
       </c>
       <c r="P27" t="n">
-        <v>422.3941725287006</v>
+        <v>370.4960704405489</v>
       </c>
       <c r="Q27" t="n">
-        <v>237.7416495866808</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>330.9559280823631</v>
+        <v>296.7863297658309</v>
       </c>
       <c r="L30" t="n">
-        <v>259.5196953664379</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M30" t="n">
         <v>645.5058908735573</v>
       </c>
       <c r="N30" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348162</v>
       </c>
       <c r="O30" t="n">
         <v>542.2474233511649</v>
       </c>
       <c r="P30" t="n">
-        <v>8.39257329678226</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.95180233245452</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>118.8721654594759</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>471.6034579893251</v>
+        <v>176.4740242168824</v>
       </c>
       <c r="M33" t="n">
         <v>645.5058908735573</v>
@@ -37165,7 +37165,7 @@
         <v>542.2474233511649</v>
       </c>
       <c r="P33" t="n">
-        <v>8.39257329678226</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.95180233245452</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>502.8327810976709</v>
+        <v>450.7533896899502</v>
       </c>
       <c r="M36" t="n">
         <v>645.5058908735573</v>
@@ -37399,13 +37399,13 @@
         <v>676.1207161001012</v>
       </c>
       <c r="O36" t="n">
-        <v>215.8886664703763</v>
+        <v>30.22640829141659</v>
       </c>
       <c r="P36" t="n">
         <v>422.3941725287006</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.95180233245452</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>330.9559280823631</v>
       </c>
       <c r="L39" t="n">
-        <v>502.8327810976709</v>
+        <v>112.0493677349823</v>
       </c>
       <c r="M39" t="n">
-        <v>319.1471339927688</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N39" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348162</v>
       </c>
       <c r="O39" t="n">
         <v>542.2474233511649</v>
@@ -37642,7 +37642,7 @@
         <v>422.3941725287006</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.95180233245452</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>87.64284235113008</v>
       </c>
       <c r="L42" t="n">
-        <v>20.74033220317398</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M42" t="n">
-        <v>563.4979333005854</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N42" t="n">
         <v>676.1207161001012</v>
@@ -37876,10 +37876,10 @@
         <v>542.2474233511649</v>
       </c>
       <c r="P42" t="n">
-        <v>422.3941725287006</v>
+        <v>8.392573296782274</v>
       </c>
       <c r="Q42" t="n">
-        <v>237.7416495866808</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.95180233245452</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>395.482005934001</v>
       </c>
       <c r="Q44" t="n">
-        <v>219.3096336538061</v>
+        <v>219.3096336538062</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>20.74033220317398</v>
+        <v>450.7533896899504</v>
       </c>
       <c r="M45" t="n">
         <v>645.5058908735573</v>
@@ -38110,13 +38110,13 @@
         <v>676.1207161001012</v>
       </c>
       <c r="O45" t="n">
-        <v>542.2474233511649</v>
+        <v>30.22640829141656</v>
       </c>
       <c r="P45" t="n">
         <v>422.3941725287006</v>
       </c>
       <c r="Q45" t="n">
-        <v>155.7336920137087</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
